--- a/Bugs-Report.xlsx
+++ b/Bugs-Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasimamar/Desktop/SENG438Lab2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\SENG438\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1877F1-02B9-6346-9F94-E633EE4E3BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{022DAE27-0920-4C97-84FA-74E37EF76110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="22940" windowHeight="14320" xr2:uid="{2FBA4923-A223-4867-89DD-E7AFC22A2457}"/>
+    <workbookView xWindow="-114" yWindow="-114" windowWidth="36727" windowHeight="20160" xr2:uid="{2FBA4923-A223-4867-89DD-E7AFC22A2457}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -31,39 +31,18 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Assigned To</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
     <t>Bug</t>
   </si>
   <si>
     <t>Card 1: Invalid Account display When click Deposit</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>1.0; 1.1; MFT</t>
-  </si>
-  <si>
     <t>Card 1 - Withdrawal options selection not working as expected</t>
   </si>
   <si>
-    <t>Resolved</t>
-  </si>
-  <si>
     <t>Card 1: Money Market displayed as an option when selected Withdraw</t>
   </si>
   <si>
-    <t>1.0; MFT</t>
-  </si>
-  <si>
     <t>Card 1 and 2: Not depositing actual amount in any account</t>
   </si>
   <si>
@@ -92,12 +71,6 @@
   </si>
   <si>
     <t>Card 1 and 2: Invalid pin number</t>
-  </si>
-  <si>
-    <t>1.0; 1.1; MFT - Only</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>Steps to Recreate</t>
@@ -318,6 +291,57 @@
   </si>
   <si>
     <t>Money Market is listed as an account type.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>1.0, 1.1</t>
+  </si>
+  <si>
+    <t>RSOLVED</t>
+  </si>
+  <si>
+    <t>IN-PROGRESS</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>EXPT &amp; MFT</t>
+  </si>
+  <si>
+    <t>MFT</t>
+  </si>
+  <si>
+    <t>1.0.</t>
+  </si>
+  <si>
+    <t>EXPT</t>
+  </si>
+  <si>
+    <t>Function Being Tested</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>Withdrawal</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>Inquiry</t>
+  </si>
+  <si>
+    <t>Invalid PIN Extension</t>
+  </si>
+  <si>
+    <t>1.0., 1.1</t>
   </si>
 </sst>
 </file>
@@ -1197,26 +1221,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95184B68-4F16-42CA-BFD6-DC3FCC3E684D}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="87.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="1"/>
-    <col min="6" max="7" width="17.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33.6640625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="87.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="50.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="41.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="37.28515625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1227,435 +1254,483 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="71.3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>55</v>
+        <v>72</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="99.8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>46</v>
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="176" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="85.55" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="99.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="99.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="71.3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="J7" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="160" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="85.55" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="99.8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>49</v>
+        <v>72</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="176" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="99.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="71.3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="71.3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="99.8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="71.3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>43</v>
+        <v>73</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
